--- a/result/NCDC_weather_data/stations_imputed/57799099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57799099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>0.977436</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>7.23648028895184</v>
+      </c>
       <c r="O2" t="n">
         <v>124.88</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>7.23648028895184</v>
+      </c>
       <c r="O3" t="n">
         <v>139.1</v>
       </c>
@@ -681,7 +685,9 @@
       <c r="M4" t="n">
         <v>1.388988</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>7.23648028895184</v>
+      </c>
       <c r="O4" t="n">
         <v>145.58</v>
       </c>
